--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R786bdce1c82f46a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R11b24335624c4890"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcdaa2816166c4821"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R67c002e2e8834fe4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfb9aa96c2d23426f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R312c342010554c60"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R11b24335624c4890"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R6fd20520c778473b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R67c002e2e8834fe4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ed4c36f979f4142"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R312c342010554c60"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbd612f51ab11492e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R6fd20520c778473b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R177997c834f44acf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ed4c36f979f4142"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd8536c0274b94eeb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbd612f51ab11492e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1bc5f7b9cab84497"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R177997c834f44acf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rffd7d5b93b254ae2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd8536c0274b94eeb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rac6aad3d68b540a0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1bc5f7b9cab84497"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b1a3cf014334459"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rffd7d5b93b254ae2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R29f456589d504931"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rac6aad3d68b540a0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ree2309727da44dec"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b1a3cf014334459"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc3d91e9ae22f4956"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R29f456589d504931"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R6b71b05049f240ee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ree2309727da44dec"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb1ce4bd2bc2c4129"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc3d91e9ae22f4956"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R32af72e964cc4d56"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R6b71b05049f240ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rca28fcd117c5464b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb1ce4bd2bc2c4129"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b0c0d90e5c84bbc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R32af72e964cc4d56"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R21f85835ec7c4f69"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rca28fcd117c5464b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R68502f9e42114175"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b0c0d90e5c84bbc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re13eb96cd005424d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R21f85835ec7c4f69"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R68cb2221d2f046e1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R68502f9e42114175"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rf27b95d55d874010"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re13eb96cd005424d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf56f7ab2580b4b62"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R68cb2221d2f046e1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra69bbc6d3f9e4ec8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rf27b95d55d874010"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R1a3777e28a204c26"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf56f7ab2580b4b62"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8b348b996f0f451c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra69bbc6d3f9e4ec8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R64ce39d75c624efb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R1a3777e28a204c26"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R011443cc121941e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8b348b996f0f451c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Recd971bd47c04c23"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R64ce39d75c624efb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5a24532f62844ab6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R011443cc121941e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R6c1a3b1207c849f8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Recd971bd47c04c23"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5335df48c610417b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5a24532f62844ab6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R50ec6c05ce824ce2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/097_LineChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R6c1a3b1207c849f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R5aeba60d6c774f75"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5335df48c610417b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd9d53c09516248a8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R50ec6c05ce824ce2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R13195f87bfbd4e79"/>
 </x:worksheet>
 </file>